--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.56443177720011</v>
+        <v>62.67478104485753</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.18448630283359</v>
+        <v>85.75440044173693</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.58161603114269</v>
+        <v>77.57012082065491</v>
       </c>
       <c r="AD2" t="n">
-        <v>50564.43177720011</v>
+        <v>62674.78104485753</v>
       </c>
       <c r="AE2" t="n">
-        <v>69184.4863028336</v>
+        <v>85754.40044173693</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.297165502418422e-06</v>
+        <v>1.165140486826625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.413194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>62581.61603114269</v>
+        <v>77570.12082065491</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.23619359738844</v>
+        <v>60.91465438408493</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.36713222748332</v>
+        <v>83.34611749316115</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.93770767807079</v>
+        <v>75.39168101664409</v>
       </c>
       <c r="AD2" t="n">
-        <v>49236.19359738844</v>
+        <v>60914.65438408493</v>
       </c>
       <c r="AE2" t="n">
-        <v>67367.13222748332</v>
+        <v>83346.11749316115</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.359925046468735e-06</v>
+        <v>1.212299868105691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.471064814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>60937.70767807079</v>
+        <v>75391.68101664408</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.06844442314578</v>
+        <v>69.53197642288755</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.82005157557035</v>
+        <v>95.13671767606233</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.10669928487158</v>
+        <v>86.05700286630422</v>
       </c>
       <c r="AD2" t="n">
-        <v>59068.44442314577</v>
+        <v>69531.97642288756</v>
       </c>
       <c r="AE2" t="n">
-        <v>80820.05157557035</v>
+        <v>95136.71767606233</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.744352869090694e-06</v>
+        <v>1.223396829716186e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.052662037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>73106.69928487157</v>
+        <v>86057.00286630422</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.97108267237748</v>
+        <v>69.82933391020626</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.63615164712924</v>
+        <v>95.54357530869802</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.37192945485866</v>
+        <v>86.42503057750957</v>
       </c>
       <c r="AD2" t="n">
-        <v>47971.08267237748</v>
+        <v>69829.33391020626</v>
       </c>
       <c r="AE2" t="n">
-        <v>65636.15164712924</v>
+        <v>95543.57530869803</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.16623247851036e-06</v>
+        <v>1.251958379318067e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>59371.92945485866</v>
+        <v>86425.03057750958</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.86702377205976</v>
+        <v>80.96000036604647</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.28094718847403</v>
+        <v>110.7730442039184</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.3327304743692</v>
+        <v>100.2010203360688</v>
       </c>
       <c r="AD2" t="n">
-        <v>60867.02377205976</v>
+        <v>80960.00036604647</v>
       </c>
       <c r="AE2" t="n">
-        <v>83280.94718847403</v>
+        <v>110773.0442039184</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.146026966201552e-06</v>
+        <v>1.14591969109482e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75332.73047436919</v>
+        <v>100201.0203360688</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.27760185423041</v>
+        <v>61.06958083580151</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.42378883129783</v>
+        <v>83.55809469927233</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.98895705513531</v>
+        <v>75.58342741571597</v>
       </c>
       <c r="AD2" t="n">
-        <v>49277.60185423041</v>
+        <v>61069.58083580151</v>
       </c>
       <c r="AE2" t="n">
-        <v>67423.78883129783</v>
+        <v>83558.09469927233</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.409938891690638e-06</v>
+        <v>1.211967957450114e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.430555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>60988.95705513531</v>
+        <v>75583.42741571597</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.32556766132294</v>
+        <v>92.55365290657561</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.64483540106367</v>
+        <v>126.6359910857144</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.37557391719709</v>
+        <v>114.550029831257</v>
       </c>
       <c r="AD2" t="n">
-        <v>63325.56766132294</v>
+        <v>92553.6529065756</v>
       </c>
       <c r="AE2" t="n">
-        <v>86644.83540106367</v>
+        <v>126635.9910857144</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.671484944653387e-06</v>
+        <v>1.070969104875605e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.990162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>78375.57391719709</v>
+        <v>114550.029831257</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.21507940929484</v>
+        <v>59.69571093052331</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.96999874695574</v>
+        <v>81.67830528400911</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.67391465603517</v>
+        <v>73.88304246394385</v>
       </c>
       <c r="AD2" t="n">
-        <v>48215.07940929484</v>
+        <v>59695.71093052331</v>
       </c>
       <c r="AE2" t="n">
-        <v>65969.99874695574</v>
+        <v>81678.30528400911</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.372617916894731e-06</v>
+        <v>1.24902430479535e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.540509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>59673.91465603517</v>
+        <v>73883.04246394386</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.74204520470116</v>
+        <v>60.30267112468501</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.69101659632044</v>
+        <v>82.50877499885466</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.32611957381162</v>
+        <v>74.63425331477637</v>
       </c>
       <c r="AD2" t="n">
-        <v>48742.04520470116</v>
+        <v>60302.67112468501</v>
       </c>
       <c r="AE2" t="n">
-        <v>66691.01659632043</v>
+        <v>82508.77499885466</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.402838460028901e-06</v>
+        <v>1.23107572357658e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.479745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>60326.11957381162</v>
+        <v>74634.25331477638</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.15447950192313</v>
+        <v>62.16208359527193</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.62357151398197</v>
+        <v>85.05290517259913</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.07423416249003</v>
+        <v>76.93557527544858</v>
       </c>
       <c r="AD2" t="n">
-        <v>50154.47950192312</v>
+        <v>62162.08359527193</v>
       </c>
       <c r="AE2" t="n">
-        <v>68623.57151398197</v>
+        <v>85052.90517259913</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.337817573636851e-06</v>
+        <v>1.180687343888503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.416087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>62074.23416249003</v>
+        <v>76935.57527544859</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.01183172654283</v>
+        <v>70.16745785018901</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.69190630075964</v>
+        <v>96.00621140035764</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.42236296259874</v>
+        <v>86.84351332989517</v>
       </c>
       <c r="AD2" t="n">
-        <v>48011.83172654283</v>
+        <v>70167.45785018901</v>
       </c>
       <c r="AE2" t="n">
-        <v>65691.90630075964</v>
+        <v>96006.21140035764</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.250220375136935e-06</v>
+        <v>1.252855020990633e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.650462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>59422.36296259874</v>
+        <v>86843.51332989517</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.20601749070047</v>
+        <v>69.41117464987266</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.95759983015127</v>
+        <v>94.97143136082532</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.66269907444854</v>
+        <v>85.90749124501258</v>
       </c>
       <c r="AD2" t="n">
-        <v>48206.01749070047</v>
+        <v>69411.17464987266</v>
       </c>
       <c r="AE2" t="n">
-        <v>65957.59983015127</v>
+        <v>94971.43136082531</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.916111468116931e-06</v>
+        <v>1.23768751725882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59662.69907444854</v>
+        <v>85907.49124501258</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.68018167858573</v>
+        <v>69.94565639003063</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.65705747640588</v>
+        <v>95.7027328573793</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.86382251727677</v>
+        <v>86.56899835312376</v>
       </c>
       <c r="AD2" t="n">
-        <v>59680.18167858572</v>
+        <v>69945.65639003064</v>
       </c>
       <c r="AE2" t="n">
-        <v>81657.05747640588</v>
+        <v>95702.73285737931</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.485166034505774e-06</v>
+        <v>1.192395983273305e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73863.82251727677</v>
+        <v>86568.99835312377</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.80259740513952</v>
+        <v>106.2543885736892</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.45294617802</v>
+        <v>145.3819420592486</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.29322640246511</v>
+        <v>131.5068935539906</v>
       </c>
       <c r="AD2" t="n">
-        <v>77802.59740513952</v>
+        <v>106254.3885736892</v>
       </c>
       <c r="AE2" t="n">
-        <v>106452.94617802</v>
+        <v>145381.9420592487</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009642751483909e-06</v>
+        <v>9.537043398499296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>96293.22640246511</v>
+        <v>131506.8935539906</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.61416085466523</v>
+        <v>60.22275801039027</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.51603958674201</v>
+        <v>82.39943435035887</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.16784212444556</v>
+        <v>74.53534798431242</v>
       </c>
       <c r="AD2" t="n">
-        <v>48614.16085466523</v>
+        <v>60222.75801039027</v>
       </c>
       <c r="AE2" t="n">
-        <v>66516.03958674202</v>
+        <v>82399.43435035888</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.357078858262487e-06</v>
+        <v>1.233640861616574e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.52025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>60167.84212444555</v>
+        <v>74535.34798431242</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.92545876625572</v>
+        <v>61.82703812435945</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.3102152397602</v>
+        <v>84.59448117813392</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.79078417128159</v>
+        <v>76.5209026236129</v>
       </c>
       <c r="AD2" t="n">
-        <v>49925.45876625572</v>
+        <v>61827.03812435945</v>
       </c>
       <c r="AE2" t="n">
-        <v>68310.2152397602</v>
+        <v>84594.48117813392</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.330750387328666e-06</v>
+        <v>1.187897083206877e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.439236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>61790.78417128159</v>
+        <v>76520.9026236129</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.2925917976558</v>
+        <v>134.6879193413351</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.8024575125727</v>
+        <v>184.2859532543686</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7918370061558</v>
+        <v>166.6979605227833</v>
       </c>
       <c r="AD2" t="n">
-        <v>107292.5917976558</v>
+        <v>134687.9193413351</v>
       </c>
       <c r="AE2" t="n">
-        <v>146802.4575125728</v>
+        <v>184285.9532543686</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.054512258354413e-06</v>
+        <v>7.639103352639634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.495949074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>132791.8370061558</v>
+        <v>166697.9605227833</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.02644922716381</v>
+        <v>69.56900232127775</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.71190660998786</v>
+        <v>95.18737814370709</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.44045447038484</v>
+        <v>86.1028283700194</v>
       </c>
       <c r="AD2" t="n">
-        <v>48026.44922716381</v>
+        <v>69569.00232127775</v>
       </c>
       <c r="AE2" t="n">
-        <v>65711.90660998787</v>
+        <v>95187.37814370709</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.055566047377287e-06</v>
+        <v>1.247012699091211e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.809606481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>59440.45447038484</v>
+        <v>86102.8283700194</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.0528717046167</v>
+        <v>59.39951988796173</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.74805900931635</v>
+        <v>81.27304363254999</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.47315653546163</v>
+        <v>73.51645841571155</v>
       </c>
       <c r="AD2" t="n">
-        <v>48052.8717046167</v>
+        <v>59399.51988796173</v>
       </c>
       <c r="AE2" t="n">
-        <v>65748.05900931635</v>
+        <v>81273.04363254999</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.324614477734119e-06</v>
+        <v>1.253022571643848e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.589699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>59473.15653546163</v>
+        <v>73516.45841571156</v>
       </c>
     </row>
   </sheetData>
